--- a/data/pca/factorExposure/factorExposure_2018-07-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-07-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.0323048506651244</v>
+        <v>0.02596686567685186</v>
       </c>
       <c r="C2">
-        <v>-0.039839378088281</v>
+        <v>0.01737895773919407</v>
       </c>
       <c r="D2">
-        <v>-0.008092282304805951</v>
+        <v>-0.02052200886472126</v>
       </c>
       <c r="E2">
-        <v>0.02157186184238213</v>
+        <v>0.01547104266919718</v>
       </c>
       <c r="F2">
-        <v>-0.1180536682505088</v>
+        <v>-0.004956328186278988</v>
       </c>
       <c r="G2">
-        <v>0.06462706504008782</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.05404098986936155</v>
+      </c>
+      <c r="H2">
+        <v>0.04464855031498156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.119735796901622</v>
+        <v>0.07823512963035943</v>
       </c>
       <c r="C3">
-        <v>-0.004775474074919296</v>
+        <v>-0.01189949327790905</v>
       </c>
       <c r="D3">
-        <v>-0.06847690687651856</v>
+        <v>-0.01717197511523049</v>
       </c>
       <c r="E3">
-        <v>0.05062465481426189</v>
+        <v>0.01420394016778504</v>
       </c>
       <c r="F3">
-        <v>-0.3977481507553857</v>
+        <v>0.0451130538223348</v>
       </c>
       <c r="G3">
-        <v>0.2354841695159019</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.1830631763045835</v>
+      </c>
+      <c r="H3">
+        <v>0.1479292027453171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05411575433455603</v>
+        <v>0.04757549481106658</v>
       </c>
       <c r="C4">
-        <v>-0.01926355956476011</v>
+        <v>0.003717258117692731</v>
       </c>
       <c r="D4">
-        <v>0.03008525900991586</v>
+        <v>-0.04048553128693974</v>
       </c>
       <c r="E4">
-        <v>0.06613436495867539</v>
+        <v>-0.02490669926822371</v>
       </c>
       <c r="F4">
-        <v>-0.07659699981921601</v>
+        <v>-0.04796222536572085</v>
       </c>
       <c r="G4">
-        <v>0.0605944292077852</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.04363500543608818</v>
+      </c>
+      <c r="H4">
+        <v>0.05222174253642997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01341288672381887</v>
+        <v>0.02697796023543227</v>
       </c>
       <c r="C6">
-        <v>-0.00810283606416231</v>
+        <v>0.003741699469545209</v>
       </c>
       <c r="D6">
-        <v>-0.0132010412896602</v>
+        <v>-0.05240545331775137</v>
       </c>
       <c r="E6">
-        <v>0.02078148373652574</v>
+        <v>-0.01119911336098094</v>
       </c>
       <c r="F6">
-        <v>-0.01482559141375574</v>
+        <v>-0.03097514950758649</v>
       </c>
       <c r="G6">
-        <v>-0.004590458307261101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.0133716801584763</v>
+      </c>
+      <c r="H6">
+        <v>0.06114175314321007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02500175555744971</v>
+        <v>0.02162123003449687</v>
       </c>
       <c r="C7">
-        <v>-0.002434856610856764</v>
+        <v>0.003187517996837156</v>
       </c>
       <c r="D7">
-        <v>-0.008610254348676074</v>
+        <v>-0.02224444375501722</v>
       </c>
       <c r="E7">
-        <v>0.03753279065597805</v>
+        <v>-0.04232336349526578</v>
       </c>
       <c r="F7">
-        <v>-0.05010572802212485</v>
+        <v>-0.001404869279715843</v>
       </c>
       <c r="G7">
-        <v>0.06187800610660561</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.02320254784174168</v>
+      </c>
+      <c r="H7">
+        <v>0.0369993429575413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01872084176794749</v>
+        <v>0.007590269335763282</v>
       </c>
       <c r="C8">
-        <v>-0.01654296694770245</v>
+        <v>-0.002018647273086066</v>
       </c>
       <c r="D8">
-        <v>-0.002042377415856029</v>
+        <v>-0.01213482592429668</v>
       </c>
       <c r="E8">
-        <v>0.06488666747022045</v>
+        <v>-0.005275025545565248</v>
       </c>
       <c r="F8">
-        <v>-0.09392005540439662</v>
+        <v>-0.01485546731325322</v>
       </c>
       <c r="G8">
-        <v>0.08013222803827771</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.04805787263879809</v>
+      </c>
+      <c r="H8">
+        <v>0.0340436997132321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04330755786258274</v>
+        <v>0.03905014889805956</v>
       </c>
       <c r="C9">
-        <v>-0.02176068972264496</v>
+        <v>-0.0003402601338441362</v>
       </c>
       <c r="D9">
-        <v>0.01663194716462249</v>
+        <v>-0.03211837614746467</v>
       </c>
       <c r="E9">
-        <v>0.05776167423931617</v>
+        <v>-0.01218987414886168</v>
       </c>
       <c r="F9">
-        <v>-0.07577185247382667</v>
+        <v>-0.02446412751443469</v>
       </c>
       <c r="G9">
-        <v>0.05792576460698451</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.04888982737170178</v>
+      </c>
+      <c r="H9">
+        <v>0.04959287650193583</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03003553203988796</v>
+        <v>0.09944778783886621</v>
       </c>
       <c r="C10">
-        <v>0.04040273940165447</v>
+        <v>-0.03067458835568878</v>
       </c>
       <c r="D10">
-        <v>0.05312155713496684</v>
+        <v>0.1519910258343211</v>
       </c>
       <c r="E10">
-        <v>-0.1071059220335264</v>
+        <v>0.01952700586229523</v>
       </c>
       <c r="F10">
-        <v>-0.0631587012794924</v>
+        <v>0.04976647382972836</v>
       </c>
       <c r="G10">
-        <v>-0.003006038511497362</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02456576896348241</v>
+      </c>
+      <c r="H10">
+        <v>0.002400447696008659</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03757260468611867</v>
+        <v>0.02210081129109462</v>
       </c>
       <c r="C11">
-        <v>-0.01696812919363677</v>
+        <v>-0.008384586727692335</v>
       </c>
       <c r="D11">
-        <v>-0.007489381478155973</v>
+        <v>-0.03746164059877986</v>
       </c>
       <c r="E11">
-        <v>0.03884600441834517</v>
+        <v>-0.001287793201798291</v>
       </c>
       <c r="F11">
-        <v>-0.0397016694946709</v>
+        <v>-0.009832683655442077</v>
       </c>
       <c r="G11">
-        <v>0.02114869940374055</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.02662006778406597</v>
+      </c>
+      <c r="H11">
+        <v>0.04232043648399984</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04401874110929872</v>
+        <v>0.03049128991596823</v>
       </c>
       <c r="C12">
-        <v>-0.0153423683230882</v>
+        <v>-0.00671117609556925</v>
       </c>
       <c r="D12">
-        <v>-0.0001167022779556357</v>
+        <v>-0.03802932325327518</v>
       </c>
       <c r="E12">
-        <v>0.04350628816740049</v>
+        <v>-0.01028707691350811</v>
       </c>
       <c r="F12">
-        <v>-0.02574276136531058</v>
+        <v>-0.01608748141652865</v>
       </c>
       <c r="G12">
-        <v>0.01245626085821056</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.01165753232736682</v>
+      </c>
+      <c r="H12">
+        <v>0.02225450259657585</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.02056910609020867</v>
+        <v>0.0266983780733143</v>
       </c>
       <c r="C13">
-        <v>-0.02688686238632581</v>
+        <v>0.01353340804292831</v>
       </c>
       <c r="D13">
-        <v>-0.004162730162108412</v>
+        <v>-0.00439206630289178</v>
       </c>
       <c r="E13">
-        <v>0.01187110313095492</v>
+        <v>0.01319430698439192</v>
       </c>
       <c r="F13">
-        <v>-0.07950956237997897</v>
+        <v>-0.00919052741070619</v>
       </c>
       <c r="G13">
-        <v>0.04551224932119714</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.05056645163647951</v>
+      </c>
+      <c r="H13">
+        <v>0.05021299328979018</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01255045685500978</v>
+        <v>0.01624393876155724</v>
       </c>
       <c r="C14">
-        <v>-0.005094180409230219</v>
+        <v>0.0007664199095709923</v>
       </c>
       <c r="D14">
-        <v>0.004996448545137287</v>
+        <v>-0.005308413436492778</v>
       </c>
       <c r="E14">
-        <v>0.04141945169444562</v>
+        <v>-0.01234394122582504</v>
       </c>
       <c r="F14">
-        <v>-0.05137581448657413</v>
+        <v>-0.01276956324013887</v>
       </c>
       <c r="G14">
-        <v>0.0726438289022302</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04390225100162236</v>
+      </c>
+      <c r="H14">
+        <v>-0.000752832003392593</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02801263966092673</v>
+        <v>0.02322723692059914</v>
       </c>
       <c r="C16">
-        <v>-0.02119014201077518</v>
+        <v>-0.0088845158566348</v>
       </c>
       <c r="D16">
-        <v>-0.007982500515320819</v>
+        <v>-0.03375959700811842</v>
       </c>
       <c r="E16">
-        <v>0.03187888936703579</v>
+        <v>-0.004106154265243093</v>
       </c>
       <c r="F16">
-        <v>-0.04654059795320105</v>
+        <v>-0.0156028152490153</v>
       </c>
       <c r="G16">
-        <v>0.02439269690254553</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.02486044133138563</v>
+      </c>
+      <c r="H16">
+        <v>0.03579935088648501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.04398494955004704</v>
+        <v>0.03526933810767168</v>
       </c>
       <c r="C19">
-        <v>-0.01609149817342507</v>
+        <v>-0.0002485300818509876</v>
       </c>
       <c r="D19">
-        <v>-0.007871654623911029</v>
+        <v>-0.01764380341215161</v>
       </c>
       <c r="E19">
-        <v>0.05440289396101379</v>
+        <v>-0.004907349549062213</v>
       </c>
       <c r="F19">
-        <v>-0.09737376901192556</v>
+        <v>-0.01702812137147658</v>
       </c>
       <c r="G19">
-        <v>0.05129417734320475</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.0605200703040259</v>
+      </c>
+      <c r="H19">
+        <v>0.0642950349831396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.002012725356788678</v>
+        <v>0.01038032878222694</v>
       </c>
       <c r="C20">
-        <v>-0.01302270953522095</v>
+        <v>0.006503687625299574</v>
       </c>
       <c r="D20">
-        <v>0.007338022766520936</v>
+        <v>-0.006230997629350263</v>
       </c>
       <c r="E20">
-        <v>0.04489374905943413</v>
+        <v>-0.003302098092379482</v>
       </c>
       <c r="F20">
-        <v>-0.06889743652646448</v>
+        <v>-0.009001837428446386</v>
       </c>
       <c r="G20">
-        <v>0.08599507541739976</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.04884808815616649</v>
+      </c>
+      <c r="H20">
+        <v>0.01092098708063831</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0003535641879815513</v>
+        <v>0.01890062303100883</v>
       </c>
       <c r="C21">
-        <v>0.003293781905709536</v>
+        <v>0.006923892730659006</v>
       </c>
       <c r="D21">
-        <v>-0.01218006070714811</v>
+        <v>-0.009481130294007026</v>
       </c>
       <c r="E21">
-        <v>0.04018479853294317</v>
+        <v>-0.01418939888468299</v>
       </c>
       <c r="F21">
-        <v>-0.05573561697458142</v>
+        <v>-0.003168579591674468</v>
       </c>
       <c r="G21">
-        <v>0.03256435413874648</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.05093729712163902</v>
+      </c>
+      <c r="H21">
+        <v>0.02841229248015617</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03371953616946444</v>
+        <v>0.0207920612189437</v>
       </c>
       <c r="C24">
-        <v>-0.02364561239513386</v>
+        <v>-0.003160534571794606</v>
       </c>
       <c r="D24">
-        <v>-0.00142383114277663</v>
+        <v>-0.03419172631144266</v>
       </c>
       <c r="E24">
-        <v>0.01581593784342484</v>
+        <v>-0.0009601322203196896</v>
       </c>
       <c r="F24">
-        <v>-0.03919299128612484</v>
+        <v>-0.009926172091690671</v>
       </c>
       <c r="G24">
-        <v>0.02169806282741262</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.0206678456652417</v>
+      </c>
+      <c r="H24">
+        <v>0.03847049757785927</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03196564165721157</v>
+        <v>0.0300093935516686</v>
       </c>
       <c r="C25">
-        <v>-0.01344023250151377</v>
+        <v>-0.001071641320353258</v>
       </c>
       <c r="D25">
-        <v>-0.006695959275003372</v>
+        <v>-0.03375027816833394</v>
       </c>
       <c r="E25">
-        <v>0.04116052433711517</v>
+        <v>-0.005316660726209559</v>
       </c>
       <c r="F25">
-        <v>-0.0398928493685464</v>
+        <v>-0.01585365493665026</v>
       </c>
       <c r="G25">
-        <v>0.005037092710787493</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.02488675053381365</v>
+      </c>
+      <c r="H25">
+        <v>0.04182688192647432</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02403246303226236</v>
+        <v>0.02164655606768813</v>
       </c>
       <c r="C26">
-        <v>-0.01660468608308734</v>
+        <v>0.01659176707100904</v>
       </c>
       <c r="D26">
-        <v>-0.02834058805168653</v>
+        <v>-0.00424770655801106</v>
       </c>
       <c r="E26">
-        <v>0.03028125921668971</v>
+        <v>0.00452243703241215</v>
       </c>
       <c r="F26">
-        <v>-0.06660816921231336</v>
+        <v>0.0007174605544531759</v>
       </c>
       <c r="G26">
-        <v>0.03728636925311403</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03254895476259792</v>
+      </c>
+      <c r="H26">
+        <v>0.01566008007720688</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.06877378472317823</v>
+        <v>0.02715170867053482</v>
       </c>
       <c r="C27">
-        <v>-0.02463319425864705</v>
+        <v>-0.01071015662728171</v>
       </c>
       <c r="D27">
-        <v>0.04423951808568629</v>
+        <v>-0.01507033272442109</v>
       </c>
       <c r="E27">
-        <v>0.04241325351190243</v>
+        <v>-0.008232330876227508</v>
       </c>
       <c r="F27">
-        <v>-0.04400120063172949</v>
+        <v>-0.01915726854852535</v>
       </c>
       <c r="G27">
-        <v>0.03738509219068707</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.0192180139329651</v>
+      </c>
+      <c r="H27">
+        <v>0.004124652337858524</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.04494482491880328</v>
+        <v>0.1465028479648743</v>
       </c>
       <c r="C28">
-        <v>0.05515806569104354</v>
+        <v>-0.0317400308770854</v>
       </c>
       <c r="D28">
-        <v>0.08641038114691799</v>
+        <v>0.2242754930282568</v>
       </c>
       <c r="E28">
-        <v>-0.1518631847017497</v>
+        <v>0.01957622849539735</v>
       </c>
       <c r="F28">
-        <v>-0.0701288443313869</v>
+        <v>0.05749580809772595</v>
       </c>
       <c r="G28">
-        <v>0.01319013953547681</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.01393839693788548</v>
+      </c>
+      <c r="H28">
+        <v>-0.01809117170948676</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02133712100175027</v>
+        <v>0.02092848287163055</v>
       </c>
       <c r="C29">
-        <v>-0.003759089565247032</v>
+        <v>-0.001393069417918668</v>
       </c>
       <c r="D29">
-        <v>0.01072558662841568</v>
+        <v>-0.007980286555274187</v>
       </c>
       <c r="E29">
-        <v>0.05349760538087774</v>
+        <v>-0.01318580339467963</v>
       </c>
       <c r="F29">
-        <v>-0.03976206753431445</v>
+        <v>-0.01552369956405328</v>
       </c>
       <c r="G29">
-        <v>0.06206076977471112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.03965228905034362</v>
+      </c>
+      <c r="H29">
+        <v>-0.004412392694943712</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.09482919126058423</v>
+        <v>0.053952546915661</v>
       </c>
       <c r="C30">
-        <v>-0.0643473601217556</v>
+        <v>0.004163297513341171</v>
       </c>
       <c r="D30">
-        <v>0.00485787391592514</v>
+        <v>-0.07181745925096866</v>
       </c>
       <c r="E30">
-        <v>0.07781206336281721</v>
+        <v>0.02925398078490454</v>
       </c>
       <c r="F30">
-        <v>-0.07876478610782413</v>
+        <v>-0.05080004778906509</v>
       </c>
       <c r="G30">
-        <v>0.03669763121279161</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.05568355768655416</v>
+      </c>
+      <c r="H30">
+        <v>0.06727813779119943</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06472512400428287</v>
+        <v>0.05552611598307428</v>
       </c>
       <c r="C31">
-        <v>-0.03851199335340669</v>
+        <v>-0.01537225783310331</v>
       </c>
       <c r="D31">
-        <v>-0.01940889096857298</v>
+        <v>-0.0277906966314018</v>
       </c>
       <c r="E31">
-        <v>0.02302480683005257</v>
+        <v>0.005289203185385661</v>
       </c>
       <c r="F31">
-        <v>-0.03526846777453136</v>
+        <v>-0.01488449178304787</v>
       </c>
       <c r="G31">
-        <v>0.08631739154450252</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.02074545495642966</v>
+      </c>
+      <c r="H31">
+        <v>-0.0009352045317755033</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02214029182756542</v>
+        <v>0.01131864961371716</v>
       </c>
       <c r="C32">
-        <v>-0.02002637878450523</v>
+        <v>-0.01366397513835236</v>
       </c>
       <c r="D32">
-        <v>0.002764392204350906</v>
+        <v>-0.001699369189572189</v>
       </c>
       <c r="E32">
-        <v>0.08791857951303002</v>
+        <v>-0.02739699400686952</v>
       </c>
       <c r="F32">
-        <v>-0.05437854221029945</v>
+        <v>-0.03403188441486069</v>
       </c>
       <c r="G32">
-        <v>0.03931638248762211</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.0355626265586254</v>
+      </c>
+      <c r="H32">
+        <v>0.05933124902557556</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.05467244320392801</v>
+        <v>0.03960145994595925</v>
       </c>
       <c r="C33">
-        <v>-0.02725133264267938</v>
+        <v>-0.00120220049105359</v>
       </c>
       <c r="D33">
-        <v>-0.03774103425687518</v>
+        <v>-0.03157897716731898</v>
       </c>
       <c r="E33">
-        <v>0.05737471714325228</v>
+        <v>0.02375027327261735</v>
       </c>
       <c r="F33">
-        <v>-0.08382241350995195</v>
+        <v>-0.0005533082444400814</v>
       </c>
       <c r="G33">
-        <v>0.05173427439972008</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.05033855019801887</v>
+      </c>
+      <c r="H33">
+        <v>0.03887721977766757</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03583074121925683</v>
+        <v>0.027612762700977</v>
       </c>
       <c r="C34">
-        <v>-0.02327339193044881</v>
+        <v>-0.01743089122685224</v>
       </c>
       <c r="D34">
-        <v>-0.0003165378564299143</v>
+        <v>-0.03498034832080678</v>
       </c>
       <c r="E34">
-        <v>0.04169964904721544</v>
+        <v>-0.009954353157529679</v>
       </c>
       <c r="F34">
-        <v>-0.05156860407353352</v>
+        <v>-0.01700763904682411</v>
       </c>
       <c r="G34">
-        <v>0.0134487954991277</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.02247885434472371</v>
+      </c>
+      <c r="H34">
+        <v>0.03598898741489095</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.0161494613446268</v>
+        <v>0.02214118246406485</v>
       </c>
       <c r="C36">
-        <v>-0.003516363510764114</v>
+        <v>0.003397818712590671</v>
       </c>
       <c r="D36">
-        <v>0.002695698014407239</v>
+        <v>0.0003578271290480063</v>
       </c>
       <c r="E36">
-        <v>0.03446879462415586</v>
+        <v>-0.005028237832459871</v>
       </c>
       <c r="F36">
-        <v>-0.03313436088039456</v>
+        <v>-0.003306500347776758</v>
       </c>
       <c r="G36">
-        <v>0.03889870971675859</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.02102505935836165</v>
+      </c>
+      <c r="H36">
+        <v>0.005227856218852875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.00214109156273048</v>
+        <v>0.02397927791441095</v>
       </c>
       <c r="C38">
-        <v>0.007383834345483142</v>
+        <v>-0.01664356153965086</v>
       </c>
       <c r="D38">
-        <v>-0.01647385862570773</v>
+        <v>-0.002341933245780789</v>
       </c>
       <c r="E38">
-        <v>-0.01286664319394593</v>
+        <v>0.001893539942258805</v>
       </c>
       <c r="F38">
-        <v>-0.04961098906507713</v>
+        <v>-0.004950704126012864</v>
       </c>
       <c r="G38">
-        <v>0.0004481093493205672</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.0225076814845552</v>
+      </c>
+      <c r="H38">
+        <v>0.03834372259555309</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.04258852261372103</v>
+        <v>0.01953396630623101</v>
       </c>
       <c r="C39">
-        <v>-0.04018471590821483</v>
+        <v>-0.0007735476668504715</v>
       </c>
       <c r="D39">
-        <v>-0.009333871972344143</v>
+        <v>-0.07594778035336479</v>
       </c>
       <c r="E39">
-        <v>0.04412471621838678</v>
+        <v>-0.0005687456335336377</v>
       </c>
       <c r="F39">
-        <v>-0.06310816604095988</v>
+        <v>-0.02225809269952321</v>
       </c>
       <c r="G39">
-        <v>0.02145085891143418</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.04403065930733716</v>
+      </c>
+      <c r="H39">
+        <v>0.07038248506457007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.03833439705650572</v>
+        <v>0.03444323100888304</v>
       </c>
       <c r="C40">
-        <v>-0.07330576106980999</v>
+        <v>-0.001943374453716011</v>
       </c>
       <c r="D40">
-        <v>-0.01360004779911357</v>
+        <v>-0.01922752239215526</v>
       </c>
       <c r="E40">
-        <v>0.01586347463490995</v>
+        <v>0.02286990356147332</v>
       </c>
       <c r="F40">
-        <v>-0.07391701368911702</v>
+        <v>-0.02629034737684497</v>
       </c>
       <c r="G40">
-        <v>0.05962549561237595</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.02572230183246231</v>
+      </c>
+      <c r="H40">
+        <v>0.06609193653085066</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0005393947876616708</v>
+        <v>0.01237805489694426</v>
       </c>
       <c r="C41">
-        <v>-0.000356505845562739</v>
+        <v>-0.0002426503040534159</v>
       </c>
       <c r="D41">
-        <v>-0.00428101270415746</v>
+        <v>0.01202608238603379</v>
       </c>
       <c r="E41">
-        <v>0.01418904454127345</v>
+        <v>0.001556313389524653</v>
       </c>
       <c r="F41">
-        <v>-0.001796802926147234</v>
+        <v>0.0007857564084476373</v>
       </c>
       <c r="G41">
-        <v>0.0529191745494668</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.005907582574526708</v>
+      </c>
+      <c r="H41">
+        <v>-0.00964318070994275</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3797020263403085</v>
+        <v>0.1963853757074066</v>
       </c>
       <c r="C42">
-        <v>0.4873959113606728</v>
+        <v>0.07712357881954808</v>
       </c>
       <c r="D42">
-        <v>-0.7178358563014643</v>
+        <v>-0.3901347570137466</v>
       </c>
       <c r="E42">
-        <v>-0.1644485122860284</v>
+        <v>0.2044988558924468</v>
       </c>
       <c r="F42">
-        <v>0.1954372283306237</v>
+        <v>0.8356297006772967</v>
       </c>
       <c r="G42">
-        <v>0.04871236629772219</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.2074694089964039</v>
+      </c>
+      <c r="H42">
+        <v>-0.04743495480536979</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.005730835042558837</v>
+        <v>0.01106032856938461</v>
       </c>
       <c r="C43">
-        <v>5.900849837883577e-05</v>
+        <v>0.001761050778132182</v>
       </c>
       <c r="D43">
-        <v>-0.01722211394379997</v>
+        <v>0.01592972869781031</v>
       </c>
       <c r="E43">
-        <v>0.0182977119936872</v>
+        <v>0.00838124964962287</v>
       </c>
       <c r="F43">
-        <v>-0.01974602947899348</v>
+        <v>0.009633531329627234</v>
       </c>
       <c r="G43">
-        <v>0.05324729129898553</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.008573296321354999</v>
+      </c>
+      <c r="H43">
+        <v>-0.001764757692906731</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01629508969609778</v>
+        <v>0.01439722912191615</v>
       </c>
       <c r="C44">
-        <v>0.001496288909757724</v>
+        <v>-0.001101285640976291</v>
       </c>
       <c r="D44">
-        <v>-0.0152017217468306</v>
+        <v>-0.01801523119177629</v>
       </c>
       <c r="E44">
-        <v>0.04820186000852843</v>
+        <v>-0.007705344609419055</v>
       </c>
       <c r="F44">
-        <v>-0.112992674064809</v>
+        <v>0.007072026453943718</v>
       </c>
       <c r="G44">
-        <v>0.1075524687864952</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.04686968361591033</v>
+      </c>
+      <c r="H44">
+        <v>0.05002789585155763</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02005350043963775</v>
+        <v>0.01934414283652933</v>
       </c>
       <c r="C46">
-        <v>-0.01187651222453155</v>
+        <v>0.00345012059383886</v>
       </c>
       <c r="D46">
-        <v>-0.01692504535955319</v>
+        <v>-0.01542179261125727</v>
       </c>
       <c r="E46">
-        <v>0.05941164236858367</v>
+        <v>-0.001205718649875786</v>
       </c>
       <c r="F46">
-        <v>-0.05659936282536706</v>
+        <v>-0.01372008936416081</v>
       </c>
       <c r="G46">
-        <v>0.06962621626002896</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.05158271591155031</v>
+      </c>
+      <c r="H46">
+        <v>0.007731202931708224</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1003945302700073</v>
+        <v>0.07558472208957938</v>
       </c>
       <c r="C47">
-        <v>-0.03540481028453072</v>
+        <v>-0.03049783445473008</v>
       </c>
       <c r="D47">
-        <v>0.002928521914171896</v>
+        <v>-0.04228061205087522</v>
       </c>
       <c r="E47">
-        <v>0.03307010611350564</v>
+        <v>-0.001755431741582412</v>
       </c>
       <c r="F47">
-        <v>-0.006789072697932207</v>
+        <v>-0.02386280450574893</v>
       </c>
       <c r="G47">
-        <v>0.08906853869788982</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.005000623345486409</v>
+      </c>
+      <c r="H47">
+        <v>-0.02515496350508669</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01898719556482423</v>
+        <v>0.02327675641299766</v>
       </c>
       <c r="C48">
-        <v>-0.00902570335630049</v>
+        <v>-0.007055786464457926</v>
       </c>
       <c r="D48">
-        <v>-0.009265954104406567</v>
+        <v>-0.005875413437512594</v>
       </c>
       <c r="E48">
-        <v>0.0362193816968241</v>
+        <v>-0.0005220131504091002</v>
       </c>
       <c r="F48">
-        <v>-0.05183906597267802</v>
+        <v>-0.007113230046197278</v>
       </c>
       <c r="G48">
-        <v>0.02601107058053254</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02708552301770271</v>
+      </c>
+      <c r="H48">
+        <v>0.01454160234395684</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.09410959766228526</v>
+        <v>0.07402710022157671</v>
       </c>
       <c r="C50">
-        <v>-0.03748854701443414</v>
+        <v>-0.02771236144135457</v>
       </c>
       <c r="D50">
-        <v>-0.01090079896621651</v>
+        <v>-0.04414825320970681</v>
       </c>
       <c r="E50">
-        <v>0.04848093439508962</v>
+        <v>-0.01746316292151278</v>
       </c>
       <c r="F50">
-        <v>-0.03915121994682887</v>
+        <v>-0.01802457173934819</v>
       </c>
       <c r="G50">
-        <v>0.04500900191194071</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.02024825116781738</v>
+      </c>
+      <c r="H50">
+        <v>-0.009022566115582796</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.0179308810558054</v>
+        <v>0.01880150317960193</v>
       </c>
       <c r="C51">
-        <v>0.001108209675440991</v>
+        <v>0.001337334139092099</v>
       </c>
       <c r="D51">
-        <v>-0.01435036643855535</v>
+        <v>0.008642267020348744</v>
       </c>
       <c r="E51">
-        <v>0.009606122429807426</v>
+        <v>0.002991734130871958</v>
       </c>
       <c r="F51">
-        <v>-0.1224415321844551</v>
+        <v>0.01492913534334168</v>
       </c>
       <c r="G51">
-        <v>0.06739961146085577</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.05085811385325046</v>
+      </c>
+      <c r="H51">
+        <v>0.04672587700214696</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1069791040544798</v>
+        <v>0.09274959355295589</v>
       </c>
       <c r="C53">
-        <v>-0.04614536933008556</v>
+        <v>-0.03718337140482628</v>
       </c>
       <c r="D53">
-        <v>0.006602912352065655</v>
+        <v>-0.07727491895143335</v>
       </c>
       <c r="E53">
-        <v>0.04738090835245187</v>
+        <v>-0.01125505653562755</v>
       </c>
       <c r="F53">
-        <v>0.05516414146389761</v>
+        <v>-0.05126300475336121</v>
       </c>
       <c r="G53">
-        <v>0.02715868028555877</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.04079623326168103</v>
+      </c>
+      <c r="H53">
+        <v>-0.0475671851133599</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01397459429357164</v>
+        <v>0.02315293156114704</v>
       </c>
       <c r="C54">
-        <v>-0.006726868119276056</v>
+        <v>-0.01098984638745321</v>
       </c>
       <c r="D54">
-        <v>0.009399889085476489</v>
+        <v>0.01457469716538289</v>
       </c>
       <c r="E54">
-        <v>0.04363565538619966</v>
+        <v>-0.007044729853809158</v>
       </c>
       <c r="F54">
-        <v>-0.05647563358551409</v>
+        <v>-0.005758342964796803</v>
       </c>
       <c r="G54">
-        <v>0.09806944921040509</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.04072380195780138</v>
+      </c>
+      <c r="H54">
+        <v>-0.006487032005621738</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1015685722093698</v>
+        <v>0.07645407979845306</v>
       </c>
       <c r="C55">
-        <v>-0.021589726994098</v>
+        <v>-0.03178255654558003</v>
       </c>
       <c r="D55">
-        <v>0.01562095983499865</v>
+        <v>-0.07366623004529947</v>
       </c>
       <c r="E55">
-        <v>0.05667458478313839</v>
+        <v>-0.0161693682427014</v>
       </c>
       <c r="F55">
-        <v>0.04703904114445982</v>
+        <v>-0.0402840113109257</v>
       </c>
       <c r="G55">
-        <v>0.06002991711101831</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01913372153737877</v>
+      </c>
+      <c r="H55">
+        <v>-0.05195208234085551</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1457710357288961</v>
+        <v>0.1274902777724018</v>
       </c>
       <c r="C56">
-        <v>-0.07834661682198163</v>
+        <v>-0.05728309938211258</v>
       </c>
       <c r="D56">
-        <v>0.05339551309496197</v>
+        <v>-0.09907245684151438</v>
       </c>
       <c r="E56">
-        <v>0.05391619653029838</v>
+        <v>-0.01501182512486471</v>
       </c>
       <c r="F56">
-        <v>0.1208059863097695</v>
+        <v>-0.08433397842305958</v>
       </c>
       <c r="G56">
-        <v>-0.03503817872266186</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.07349065253888487</v>
+      </c>
+      <c r="H56">
+        <v>-0.0502871027278788</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04908914656032418</v>
+        <v>0.04302202197432937</v>
       </c>
       <c r="C57">
-        <v>-0.01073863917272725</v>
+        <v>0.00907943713106394</v>
       </c>
       <c r="D57">
-        <v>-0.01550329278966701</v>
+        <v>-0.0272753812062726</v>
       </c>
       <c r="E57">
-        <v>-0.004998692638064644</v>
+        <v>0.006661049793984302</v>
       </c>
       <c r="F57">
-        <v>-0.08758874644306373</v>
+        <v>-0.01074289822202448</v>
       </c>
       <c r="G57">
-        <v>0.0577330237731163</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.056354117683915</v>
+      </c>
+      <c r="H57">
+        <v>0.03939474171891526</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2167271233183328</v>
+        <v>0.1489006621210353</v>
       </c>
       <c r="C58">
-        <v>-0.09441081467298292</v>
+        <v>-0.04334169905953442</v>
       </c>
       <c r="D58">
-        <v>-0.08706363886327845</v>
+        <v>-0.1574401658543327</v>
       </c>
       <c r="E58">
-        <v>0.1906030419170932</v>
+        <v>0.1505892245086357</v>
       </c>
       <c r="F58">
-        <v>-0.2898969940664207</v>
+        <v>0.04662958963839506</v>
       </c>
       <c r="G58">
-        <v>0.05026664944952742</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.828982850423168</v>
+      </c>
+      <c r="H58">
+        <v>-0.3623602009560964</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.04823251488556049</v>
+        <v>0.1546648630410031</v>
       </c>
       <c r="C59">
-        <v>0.00845117877674589</v>
+        <v>-0.04055562111002024</v>
       </c>
       <c r="D59">
-        <v>0.07853936914492501</v>
+        <v>0.2200053775976544</v>
       </c>
       <c r="E59">
-        <v>-0.1413059141178881</v>
+        <v>0.03994334413713168</v>
       </c>
       <c r="F59">
-        <v>-0.08068216854982579</v>
+        <v>0.03491980856188269</v>
       </c>
       <c r="G59">
-        <v>-0.02133715917550898</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.009176824571392983</v>
+      </c>
+      <c r="H59">
+        <v>0.01560694857108605</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.166383453052184</v>
+        <v>0.1744107475835851</v>
       </c>
       <c r="C60">
-        <v>-0.055513632407457</v>
+        <v>-0.03853937774632095</v>
       </c>
       <c r="D60">
-        <v>-0.03584711190299916</v>
+        <v>-0.02000804665786318</v>
       </c>
       <c r="E60">
-        <v>-0.02342748012215544</v>
+        <v>0.04843958043659107</v>
       </c>
       <c r="F60">
-        <v>-0.1828097113298217</v>
+        <v>-0.03477546265822327</v>
       </c>
       <c r="G60">
-        <v>-0.3175704049071255</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.04146428783671384</v>
+      </c>
+      <c r="H60">
+        <v>0.3926866138789406</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02226509555337439</v>
+        <v>0.02124154685275248</v>
       </c>
       <c r="C61">
-        <v>-0.008852207076572135</v>
+        <v>-0.006204453783487705</v>
       </c>
       <c r="D61">
-        <v>-0.00849298588406629</v>
+        <v>-0.04217736914883698</v>
       </c>
       <c r="E61">
-        <v>0.02174634006823915</v>
+        <v>-0.005961858618850514</v>
       </c>
       <c r="F61">
-        <v>-0.0329227452134732</v>
+        <v>-0.01773030052712578</v>
       </c>
       <c r="G61">
-        <v>0.006940805264612993</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.02515156233597749</v>
+      </c>
+      <c r="H61">
+        <v>0.04902132937678248</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01756332492605869</v>
+        <v>0.01274690727595537</v>
       </c>
       <c r="C63">
-        <v>-0.01231410398405554</v>
+        <v>0.002147762947062983</v>
       </c>
       <c r="D63">
-        <v>-0.006422113612127026</v>
+        <v>-0.01421063546457407</v>
       </c>
       <c r="E63">
-        <v>0.05092736341718849</v>
+        <v>-0.005796762711152487</v>
       </c>
       <c r="F63">
-        <v>-0.01200471286406171</v>
+        <v>-0.01471903707371786</v>
       </c>
       <c r="G63">
-        <v>0.04903303891970908</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01706396897192882</v>
+      </c>
+      <c r="H63">
+        <v>-0.0023829843552549</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03616334983574155</v>
+        <v>0.04028838093141449</v>
       </c>
       <c r="C64">
-        <v>0.00216346799394476</v>
+        <v>-0.009876902484406936</v>
       </c>
       <c r="D64">
-        <v>0.01610909096227789</v>
+        <v>-0.03806660098087174</v>
       </c>
       <c r="E64">
-        <v>0.05453996036199905</v>
+        <v>-0.01133204345572371</v>
       </c>
       <c r="F64">
-        <v>-0.01233557263721054</v>
+        <v>-0.005877636045713426</v>
       </c>
       <c r="G64">
-        <v>0.06101181452882268</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.008522997067404264</v>
+      </c>
+      <c r="H64">
+        <v>0.03299963043413748</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.01462292133022816</v>
+        <v>0.03040754742691114</v>
       </c>
       <c r="C65">
-        <v>-0.008977737932244882</v>
+        <v>0.004251493610180529</v>
       </c>
       <c r="D65">
-        <v>-0.01433716118822193</v>
+        <v>-0.06280809724052504</v>
       </c>
       <c r="E65">
-        <v>0.01946078632210864</v>
+        <v>-0.01485665366553257</v>
       </c>
       <c r="F65">
-        <v>-0.009968350069929133</v>
+        <v>-0.0354319043610039</v>
       </c>
       <c r="G65">
-        <v>-0.009783223550567094</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.00111199758130972</v>
+      </c>
+      <c r="H65">
+        <v>0.06642808205527108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04623912438166662</v>
+        <v>0.02587871691343009</v>
       </c>
       <c r="C66">
-        <v>-0.04213737982782519</v>
+        <v>-0.005517744045052391</v>
       </c>
       <c r="D66">
-        <v>-0.01137605555000578</v>
+        <v>-0.08808575472507291</v>
       </c>
       <c r="E66">
-        <v>0.0378225525421727</v>
+        <v>0.0008380109788650413</v>
       </c>
       <c r="F66">
-        <v>-0.05853028384406727</v>
+        <v>-0.04006634870381405</v>
       </c>
       <c r="G66">
-        <v>0.01019959298189384</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.03580534104226944</v>
+      </c>
+      <c r="H66">
+        <v>0.07490224929498483</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01629214358075111</v>
+        <v>0.04426228101696232</v>
       </c>
       <c r="C67">
-        <v>0.004392278978022211</v>
+        <v>-0.02025104156213153</v>
       </c>
       <c r="D67">
-        <v>-0.007994892414618711</v>
+        <v>0.003656904786667452</v>
       </c>
       <c r="E67">
-        <v>-0.03510700372317883</v>
+        <v>0.003463688610802249</v>
       </c>
       <c r="F67">
-        <v>-0.03601520800531796</v>
+        <v>-0.01083354806297434</v>
       </c>
       <c r="G67">
-        <v>-0.01641765486212547</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.006567873336402525</v>
+      </c>
+      <c r="H67">
+        <v>0.04019230401123992</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05861139147324673</v>
+        <v>0.1564427776017127</v>
       </c>
       <c r="C68">
-        <v>0.04065256261602049</v>
+        <v>-0.02087283960845226</v>
       </c>
       <c r="D68">
-        <v>0.1073085236364826</v>
+        <v>0.2167385836780284</v>
       </c>
       <c r="E68">
-        <v>-0.1544879764623565</v>
+        <v>0.03109721871048048</v>
       </c>
       <c r="F68">
-        <v>-0.07753732544339287</v>
+        <v>0.05391230459585633</v>
       </c>
       <c r="G68">
-        <v>-0.04199761075731845</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.02071470558216817</v>
+      </c>
+      <c r="H68">
+        <v>-0.03688124445219956</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07379910175744379</v>
+        <v>0.05872413382818421</v>
       </c>
       <c r="C69">
-        <v>-0.03778650017323307</v>
+        <v>-0.02890861696726591</v>
       </c>
       <c r="D69">
-        <v>0.005792682844187286</v>
+        <v>-0.03744860059101113</v>
       </c>
       <c r="E69">
-        <v>0.009852415472630688</v>
+        <v>0.0003072952817597737</v>
       </c>
       <c r="F69">
-        <v>-0.008585661695355587</v>
+        <v>-0.03107018398804455</v>
       </c>
       <c r="G69">
-        <v>0.07814773448442722</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.01140889711488975</v>
+      </c>
+      <c r="H69">
+        <v>-0.001998103387618311</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07541843985760113</v>
+        <v>0.148326407271451</v>
       </c>
       <c r="C71">
-        <v>0.03193107235128976</v>
+        <v>-0.02806183741882106</v>
       </c>
       <c r="D71">
-        <v>0.09296365578012253</v>
+        <v>0.198434824189777</v>
       </c>
       <c r="E71">
-        <v>-0.1967146285561426</v>
+        <v>0.03451208280359227</v>
       </c>
       <c r="F71">
-        <v>-0.07834982468940899</v>
+        <v>0.06516815557051567</v>
       </c>
       <c r="G71">
-        <v>-0.003368178706910857</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01677890926481748</v>
+      </c>
+      <c r="H71">
+        <v>-0.02266955609799256</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1126068122726348</v>
+        <v>0.08552045760209749</v>
       </c>
       <c r="C72">
-        <v>-0.06707706375317045</v>
+        <v>-0.04126182939732026</v>
       </c>
       <c r="D72">
-        <v>0.05170470415062985</v>
+        <v>-0.07968450678719784</v>
       </c>
       <c r="E72">
-        <v>0.03571573447920605</v>
+        <v>-0.005537263527843254</v>
       </c>
       <c r="F72">
-        <v>-0.1130022776431792</v>
+        <v>-0.07957608147058925</v>
       </c>
       <c r="G72">
-        <v>-0.09908417399021333</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.05314894340887003</v>
+      </c>
+      <c r="H72">
+        <v>0.182234412369487</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2477214272996769</v>
+        <v>0.2403173995461241</v>
       </c>
       <c r="C73">
-        <v>-0.07018084344367705</v>
+        <v>-0.05024382214665765</v>
       </c>
       <c r="D73">
-        <v>-0.03019711327652974</v>
+        <v>-0.06444999721313897</v>
       </c>
       <c r="E73">
-        <v>-0.1023242249661439</v>
+        <v>0.07549584389893926</v>
       </c>
       <c r="F73">
-        <v>-0.3005680153433249</v>
+        <v>-0.03477165267813241</v>
       </c>
       <c r="G73">
-        <v>-0.4760317380010495</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.06058288997209199</v>
+      </c>
+      <c r="H73">
+        <v>0.5168988885951491</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.138301551067629</v>
+        <v>0.1175267499170134</v>
       </c>
       <c r="C74">
-        <v>-0.03363632751111324</v>
+        <v>-0.05279936715833701</v>
       </c>
       <c r="D74">
-        <v>0.03037001340256245</v>
+        <v>-0.09647099265852116</v>
       </c>
       <c r="E74">
-        <v>0.02614936992798597</v>
+        <v>-0.01244648278805284</v>
       </c>
       <c r="F74">
-        <v>0.07800976199242959</v>
+        <v>-0.06429276256530826</v>
       </c>
       <c r="G74">
-        <v>-0.02958783048363729</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.05745767597908363</v>
+      </c>
+      <c r="H74">
+        <v>-0.02924045919002573</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.228726201646017</v>
+        <v>0.2293232647383018</v>
       </c>
       <c r="C75">
-        <v>-0.1341099975763355</v>
+        <v>-0.104409713709497</v>
       </c>
       <c r="D75">
-        <v>0.07524393287146629</v>
+        <v>-0.1570686525027295</v>
       </c>
       <c r="E75">
-        <v>0.06320022563634611</v>
+        <v>-0.002940269106174752</v>
       </c>
       <c r="F75">
-        <v>0.1459873442330195</v>
+        <v>-0.1539831184072268</v>
       </c>
       <c r="G75">
-        <v>0.02016572429523872</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1219007434611896</v>
+      </c>
+      <c r="H75">
+        <v>-0.115197516412365</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2751789819319981</v>
+        <v>0.2013720211497044</v>
       </c>
       <c r="C76">
-        <v>-0.09534978760482514</v>
+        <v>-0.09692648003420537</v>
       </c>
       <c r="D76">
-        <v>0.1342208906466027</v>
+        <v>-0.1480251880584834</v>
       </c>
       <c r="E76">
-        <v>0.0587883329833356</v>
+        <v>-0.04924866244855514</v>
       </c>
       <c r="F76">
-        <v>0.1789189013069579</v>
+        <v>-0.148726666172684</v>
       </c>
       <c r="G76">
-        <v>0.01415700255205105</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1216555299028988</v>
+      </c>
+      <c r="H76">
+        <v>-0.1318998972370701</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.145838807006662</v>
+        <v>0.07099234657180498</v>
       </c>
       <c r="C77">
-        <v>0.0005175507983797858</v>
+        <v>-0.00978129971828048</v>
       </c>
       <c r="D77">
-        <v>-0.07318500002937156</v>
+        <v>-0.07374312169104041</v>
       </c>
       <c r="E77">
-        <v>0.09693130790135725</v>
+        <v>0.01231445577206735</v>
       </c>
       <c r="F77">
-        <v>-0.1694742322077697</v>
+        <v>0.02854856308436385</v>
       </c>
       <c r="G77">
-        <v>0.2030844430280819</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.09639573871873963</v>
+      </c>
+      <c r="H77">
+        <v>-0.01878942176728774</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.06347374427282977</v>
+        <v>0.03810102390299283</v>
       </c>
       <c r="C78">
-        <v>-0.02769948029279583</v>
+        <v>-0.01051460691158033</v>
       </c>
       <c r="D78">
-        <v>-0.01751654345949344</v>
+        <v>-0.06396240034940155</v>
       </c>
       <c r="E78">
-        <v>0.1005344506068416</v>
+        <v>-0.007480937323085169</v>
       </c>
       <c r="F78">
-        <v>-0.04921181904061653</v>
+        <v>-0.02415625076604625</v>
       </c>
       <c r="G78">
-        <v>0.04984743450438808</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.04710659909011831</v>
+      </c>
+      <c r="H78">
+        <v>0.05827704662415748</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1252878138133639</v>
+        <v>0.1396838016550926</v>
       </c>
       <c r="C80">
-        <v>0.7570059093045705</v>
+        <v>-0.04076362568289527</v>
       </c>
       <c r="D80">
-        <v>0.4589460671241279</v>
+        <v>-0.002481650352709938</v>
       </c>
       <c r="E80">
-        <v>0.4084643702623452</v>
+        <v>-0.942974180993865</v>
       </c>
       <c r="F80">
-        <v>-0.03124800144438391</v>
+        <v>0.2370106015490229</v>
       </c>
       <c r="G80">
-        <v>-0.09270367954082151</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.112580452424597</v>
+      </c>
+      <c r="H80">
+        <v>0.01837684324963553</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1702920029896232</v>
+        <v>0.1494044135081987</v>
       </c>
       <c r="C81">
-        <v>-0.08418821525984435</v>
+        <v>-0.06719704393074481</v>
       </c>
       <c r="D81">
-        <v>0.08084545875667465</v>
+        <v>-0.0956065572129241</v>
       </c>
       <c r="E81">
-        <v>0.04451613648370563</v>
+        <v>-0.02168956968320686</v>
       </c>
       <c r="F81">
-        <v>0.1445378510984035</v>
+        <v>-0.09388258153690197</v>
       </c>
       <c r="G81">
-        <v>-0.01718472707689353</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.07776676678014288</v>
+      </c>
+      <c r="H81">
+        <v>-0.0860679781384987</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.05143523709306436</v>
+        <v>0.03385324774091467</v>
       </c>
       <c r="C83">
-        <v>-0.02005646873371641</v>
+        <v>-0.006115236931005413</v>
       </c>
       <c r="D83">
-        <v>-0.04249658005233747</v>
+        <v>-0.02322087861083665</v>
       </c>
       <c r="E83">
-        <v>0.02168088014024953</v>
+        <v>0.01191711636033386</v>
       </c>
       <c r="F83">
-        <v>-0.05562003229487009</v>
+        <v>-0.002807369292469547</v>
       </c>
       <c r="G83">
-        <v>0.05720833025252175</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.0429462602439619</v>
+      </c>
+      <c r="H83">
+        <v>0.03827405860087645</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2503279573848687</v>
+        <v>0.214819458025416</v>
       </c>
       <c r="C85">
-        <v>-0.1074056674113972</v>
+        <v>-0.08668443620326524</v>
       </c>
       <c r="D85">
-        <v>0.09161458167851955</v>
+        <v>-0.1576615727388994</v>
       </c>
       <c r="E85">
-        <v>0.0556977012500104</v>
+        <v>-0.01014324671382195</v>
       </c>
       <c r="F85">
-        <v>0.1470819326495009</v>
+        <v>-0.1396794870477882</v>
       </c>
       <c r="G85">
-        <v>0.0538274804909129</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1333766973808739</v>
+      </c>
+      <c r="H85">
+        <v>-0.09268977666222374</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.00278721039363269</v>
+        <v>0.02309859048715221</v>
       </c>
       <c r="C86">
-        <v>0.01174637970722509</v>
+        <v>-0.0001934739766653786</v>
       </c>
       <c r="D86">
-        <v>-0.01647866886514269</v>
+        <v>-0.008352884228004677</v>
       </c>
       <c r="E86">
-        <v>0.05302346634365356</v>
+        <v>0.01131962152140611</v>
       </c>
       <c r="F86">
-        <v>-0.06621365931591768</v>
+        <v>0.01965103451602739</v>
       </c>
       <c r="G86">
-        <v>0.03051376336568336</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.06512249391409247</v>
+      </c>
+      <c r="H86">
+        <v>0.06740134968177919</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03817948868166049</v>
+        <v>0.0292863997545631</v>
       </c>
       <c r="C87">
-        <v>0.003000853028730946</v>
+        <v>-0.003164615005231102</v>
       </c>
       <c r="D87">
-        <v>-0.001900130778567455</v>
+        <v>-0.03323419752007765</v>
       </c>
       <c r="E87">
-        <v>0.03303151695432633</v>
+        <v>-0.004789617360636031</v>
       </c>
       <c r="F87">
-        <v>-0.09832695931886376</v>
+        <v>-0.006872112948292881</v>
       </c>
       <c r="G87">
-        <v>0.02680004697375991</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.07851860049653021</v>
+      </c>
+      <c r="H87">
+        <v>0.06745061889483156</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.0110950091769934</v>
+        <v>0.03807347518087322</v>
       </c>
       <c r="C88">
-        <v>-0.002504236480988467</v>
+        <v>0.01032617197260737</v>
       </c>
       <c r="D88">
-        <v>0.01910666351630358</v>
+        <v>-0.0003640708093051917</v>
       </c>
       <c r="E88">
-        <v>-0.0005398602546436792</v>
+        <v>-0.008929593630045876</v>
       </c>
       <c r="F88">
-        <v>-0.01120511923406177</v>
+        <v>-0.00971290684037902</v>
       </c>
       <c r="G88">
-        <v>0.06243699357565211</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.00431563839178375</v>
+      </c>
+      <c r="H88">
+        <v>0.009513864465355695</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.0917397678499947</v>
+        <v>0.243463876457472</v>
       </c>
       <c r="C89">
-        <v>0.04648813387399461</v>
+        <v>-0.04230989918624996</v>
       </c>
       <c r="D89">
-        <v>0.122232139204118</v>
+        <v>0.3467103646510969</v>
       </c>
       <c r="E89">
-        <v>-0.2599881817149334</v>
+        <v>0.06228246601924298</v>
       </c>
       <c r="F89">
-        <v>-0.1450776081967595</v>
+        <v>0.07339598788265873</v>
       </c>
       <c r="G89">
-        <v>0.07207143035625518</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.02988421297824815</v>
+      </c>
+      <c r="H89">
+        <v>-0.01741722955324649</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07982034793377742</v>
+        <v>0.1975549388157908</v>
       </c>
       <c r="C90">
-        <v>0.08769409396768783</v>
+        <v>-0.03523843386737463</v>
       </c>
       <c r="D90">
-        <v>0.1575939661155502</v>
+        <v>0.3034065026443533</v>
       </c>
       <c r="E90">
-        <v>-0.2801631363429365</v>
+        <v>0.04707841896064571</v>
       </c>
       <c r="F90">
-        <v>-0.105566403700776</v>
+        <v>0.08466151794093631</v>
       </c>
       <c r="G90">
-        <v>0.04503040129093336</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02878047679161017</v>
+      </c>
+      <c r="H90">
+        <v>-0.06403282258099366</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2987068185904982</v>
+        <v>0.2342251329723305</v>
       </c>
       <c r="C91">
-        <v>-0.1149766714929421</v>
+        <v>-0.1050801426605873</v>
       </c>
       <c r="D91">
-        <v>0.08485303174090128</v>
+        <v>-0.1506944647381899</v>
       </c>
       <c r="E91">
-        <v>0.02529317622133518</v>
+        <v>-0.01042595652209608</v>
       </c>
       <c r="F91">
-        <v>0.2406109384912846</v>
+        <v>-0.1456172142419579</v>
       </c>
       <c r="G91">
-        <v>-0.02599980052235891</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.1472266894697468</v>
+      </c>
+      <c r="H91">
+        <v>-0.167437176502532</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1607947529098305</v>
+        <v>0.2401950740665415</v>
       </c>
       <c r="C92">
-        <v>0.0733111422144547</v>
+        <v>-0.09632465052261474</v>
       </c>
       <c r="D92">
-        <v>0.2375819693689095</v>
+        <v>0.2340410243760973</v>
       </c>
       <c r="E92">
-        <v>-0.4161756219318229</v>
+        <v>0.02386902902389778</v>
       </c>
       <c r="F92">
-        <v>0.04815804009997441</v>
+        <v>0.04308914307682078</v>
       </c>
       <c r="G92">
-        <v>0.4533834117207713</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.002891841354179586</v>
+      </c>
+      <c r="H92">
+        <v>-0.1579946452169115</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.08465818624409899</v>
+        <v>0.2211723308130317</v>
       </c>
       <c r="C93">
-        <v>0.09031904760395086</v>
+        <v>-0.0474139489961831</v>
       </c>
       <c r="D93">
-        <v>0.1719957965937107</v>
+        <v>0.3253837074425002</v>
       </c>
       <c r="E93">
-        <v>-0.3984877659066111</v>
+        <v>0.07098003899915054</v>
       </c>
       <c r="F93">
-        <v>-0.08047350786164095</v>
+        <v>0.09933731985429682</v>
       </c>
       <c r="G93">
-        <v>-0.01734192856818536</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.04003506230499615</v>
+      </c>
+      <c r="H93">
+        <v>-0.0141911578108697</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2963311440906423</v>
+        <v>0.2581862402241381</v>
       </c>
       <c r="C94">
-        <v>-0.1831336935177981</v>
+        <v>-0.09623842287716845</v>
       </c>
       <c r="D94">
-        <v>0.1450885585807764</v>
+        <v>-0.1385200541562539</v>
       </c>
       <c r="E94">
-        <v>0.0489859246127672</v>
+        <v>0.002115558265836473</v>
       </c>
       <c r="F94">
-        <v>0.2450244023698331</v>
+        <v>-0.1930106048022378</v>
       </c>
       <c r="G94">
-        <v>-0.062638294409014</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1413542071222899</v>
+      </c>
+      <c r="H94">
+        <v>-0.1772774665204367</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.08022800720706666</v>
+        <v>0.05469373887731175</v>
       </c>
       <c r="C95">
-        <v>-0.05563293581222747</v>
+        <v>-0.02946450715416792</v>
       </c>
       <c r="D95">
-        <v>-0.0716476462825907</v>
+        <v>-0.0932119642519284</v>
       </c>
       <c r="E95">
-        <v>0.09182969117729307</v>
+        <v>0.07650284542415235</v>
       </c>
       <c r="F95">
-        <v>0.01836463221648654</v>
+        <v>-0.009719535100721072</v>
       </c>
       <c r="G95">
-        <v>0.1808095291716581</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.03095615461855847</v>
+      </c>
+      <c r="H95">
+        <v>0.03162740698153384</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.18271871235241</v>
+        <v>0.1830277386181878</v>
       </c>
       <c r="C98">
-        <v>-0.01460129676549297</v>
+        <v>-0.07095546373218435</v>
       </c>
       <c r="D98">
-        <v>-0.01329744809297548</v>
+        <v>-0.0381704968174424</v>
       </c>
       <c r="E98">
-        <v>-0.0805781776374338</v>
+        <v>0.04568116692997963</v>
       </c>
       <c r="F98">
-        <v>-0.165737769539318</v>
+        <v>-0.003377219500970021</v>
       </c>
       <c r="G98">
-        <v>-0.3527118339373261</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.07719092038123063</v>
+      </c>
+      <c r="H98">
+        <v>0.3834935994983288</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.006341646784420618</v>
+        <v>0.01416973899088387</v>
       </c>
       <c r="C101">
-        <v>-0.01950516120915369</v>
+        <v>0.0007928309936359762</v>
       </c>
       <c r="D101">
-        <v>-0.009268473690637134</v>
+        <v>-0.009653906953431801</v>
       </c>
       <c r="E101">
-        <v>0.1155785403575189</v>
+        <v>-0.005897707589957645</v>
       </c>
       <c r="F101">
-        <v>-0.1350213043640511</v>
+        <v>-0.01681330434105487</v>
       </c>
       <c r="G101">
-        <v>0.1416107981340682</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1092576268911121</v>
+      </c>
+      <c r="H101">
+        <v>-0.03361707416318288</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.09848170471471962</v>
+        <v>0.1033789122834616</v>
       </c>
       <c r="C102">
-        <v>-0.04601986031089067</v>
+        <v>-0.03424941388940535</v>
       </c>
       <c r="D102">
-        <v>0.02050859847826488</v>
+        <v>-0.0760959829390964</v>
       </c>
       <c r="E102">
-        <v>0.05303292595780978</v>
+        <v>-0.01071960453471441</v>
       </c>
       <c r="F102">
-        <v>0.1205923338397196</v>
+        <v>-0.06829238728712352</v>
       </c>
       <c r="G102">
-        <v>0.04723116794812516</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.07415277996036526</v>
+      </c>
+      <c r="H102">
+        <v>-0.07612129310974</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02772907186746911</v>
+        <v>0.01983523598934478</v>
       </c>
       <c r="C103">
-        <v>-0.01295139985978589</v>
+        <v>-0.007672953444469309</v>
       </c>
       <c r="D103">
-        <v>0.007822820614074286</v>
+        <v>-0.01673667466205266</v>
       </c>
       <c r="E103">
-        <v>0.01820327653066424</v>
+        <v>-0.01160985304240796</v>
       </c>
       <c r="F103">
-        <v>0.007505882056084243</v>
+        <v>-0.01481346679256068</v>
       </c>
       <c r="G103">
-        <v>0.04010210286399621</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.0002163451627076549</v>
+      </c>
+      <c r="H103">
+        <v>-0.008597901182736883</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.2767552332872176</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9439480947188174</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.001218008954362542</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.03677933290980695</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1446346910050675</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.01127144326480993</v>
+      </c>
+      <c r="H104">
+        <v>-0.03725896701771774</v>
       </c>
     </row>
   </sheetData>
